--- a/public/Export/Exportar_Huasco_Colorados.xlsx
+++ b/public/Export/Exportar_Huasco_Colorados.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C9ADB5A-D1FD-9A41-95F7-69E4C6904072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B38D5-7D10-E143-907E-4078C0A92B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="28020" windowHeight="18000" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="28020" windowHeight="18000" tabRatio="772" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen MLC" sheetId="17" r:id="rId1"/>
     <sheet name="Utilidad" sheetId="5" r:id="rId2"/>
-    <sheet name="Flujos" sheetId="21" r:id="rId3"/>
-    <sheet name="Diag Proc Los Colorados" sheetId="15" r:id="rId4"/>
-    <sheet name="Bal Fet Pta Pellets" sheetId="1" state="hidden" r:id="rId5"/>
+    <sheet name="Datos Extra" sheetId="22" r:id="rId3"/>
+    <sheet name="Flujos" sheetId="21" r:id="rId4"/>
+    <sheet name="Diag Proc Los Colorados" sheetId="15" r:id="rId5"/>
+    <sheet name="Bal Fet Pta Pellets" sheetId="1" state="hidden" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_PAG1">#REF!</definedName>
@@ -41,440 +42,440 @@
     <definedName name="INVROLL">#REF!</definedName>
     <definedName name="MENU">#REF!</definedName>
     <definedName name="Month">#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$N$62:$O$116</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$N$62:$O$116</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Utilidad!$M$40:$N$70</definedName>
-    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$62</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$62</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Utilidad!$AB$39:$AB$52</definedName>
-    <definedName name="solver_lhs10" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$71</definedName>
+    <definedName name="solver_lhs10" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$71</definedName>
     <definedName name="solver_lhs10" localSheetId="1" hidden="1">Utilidad!$T$70</definedName>
-    <definedName name="solver_lhs11" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$72</definedName>
+    <definedName name="solver_lhs11" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$72</definedName>
     <definedName name="solver_lhs11" localSheetId="1" hidden="1">Utilidad!$V$40</definedName>
-    <definedName name="solver_lhs12" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$73</definedName>
+    <definedName name="solver_lhs12" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$73</definedName>
     <definedName name="solver_lhs12" localSheetId="1" hidden="1">Utilidad!$V$49</definedName>
-    <definedName name="solver_lhs13" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$74</definedName>
+    <definedName name="solver_lhs13" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$74</definedName>
     <definedName name="solver_lhs13" localSheetId="1" hidden="1">Utilidad!$V$51</definedName>
-    <definedName name="solver_lhs14" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$75</definedName>
+    <definedName name="solver_lhs14" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$75</definedName>
     <definedName name="solver_lhs14" localSheetId="1" hidden="1">Utilidad!$V$56</definedName>
-    <definedName name="solver_lhs15" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$76</definedName>
+    <definedName name="solver_lhs15" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$76</definedName>
     <definedName name="solver_lhs15" localSheetId="1" hidden="1">Utilidad!$V$59</definedName>
-    <definedName name="solver_lhs16" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$77</definedName>
+    <definedName name="solver_lhs16" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$77</definedName>
     <definedName name="solver_lhs16" localSheetId="1" hidden="1">Utilidad!$V$62</definedName>
-    <definedName name="solver_lhs17" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$78</definedName>
+    <definedName name="solver_lhs17" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$78</definedName>
     <definedName name="solver_lhs17" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs18" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$79</definedName>
+    <definedName name="solver_lhs18" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$79</definedName>
     <definedName name="solver_lhs18" localSheetId="1" hidden="1">Utilidad!$V$66</definedName>
-    <definedName name="solver_lhs19" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$80</definedName>
+    <definedName name="solver_lhs19" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$80</definedName>
     <definedName name="solver_lhs19" localSheetId="1" hidden="1">Utilidad!$V$66</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$63</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$63</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Utilidad!$AC$39:$AC$52</definedName>
-    <definedName name="solver_lhs20" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$81</definedName>
+    <definedName name="solver_lhs20" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$81</definedName>
     <definedName name="solver_lhs20" localSheetId="1" hidden="1">Utilidad!$V$66</definedName>
-    <definedName name="solver_lhs21" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$82</definedName>
+    <definedName name="solver_lhs21" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$82</definedName>
     <definedName name="solver_lhs21" localSheetId="1" hidden="1">Utilidad!$V$66</definedName>
-    <definedName name="solver_lhs22" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$61</definedName>
+    <definedName name="solver_lhs22" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$61</definedName>
     <definedName name="solver_lhs22" localSheetId="1" hidden="1">Utilidad!$V$66</definedName>
-    <definedName name="solver_lhs23" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$61</definedName>
+    <definedName name="solver_lhs23" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$61</definedName>
     <definedName name="solver_lhs23" localSheetId="1" hidden="1">Utilidad!$V$66</definedName>
-    <definedName name="solver_lhs24" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$62</definedName>
+    <definedName name="solver_lhs24" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$62</definedName>
     <definedName name="solver_lhs24" localSheetId="1" hidden="1">Utilidad!$V$66</definedName>
-    <definedName name="solver_lhs25" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$63</definedName>
+    <definedName name="solver_lhs25" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$63</definedName>
     <definedName name="solver_lhs25" localSheetId="1" hidden="1">Utilidad!$V$66</definedName>
-    <definedName name="solver_lhs26" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$64</definedName>
+    <definedName name="solver_lhs26" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$64</definedName>
     <definedName name="solver_lhs26" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs27" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$65</definedName>
+    <definedName name="solver_lhs27" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$65</definedName>
     <definedName name="solver_lhs27" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs28" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$66</definedName>
+    <definedName name="solver_lhs28" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$66</definedName>
     <definedName name="solver_lhs28" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs29" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$67</definedName>
+    <definedName name="solver_lhs29" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$67</definedName>
     <definedName name="solver_lhs29" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$64</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$64</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">Utilidad!$T$40</definedName>
-    <definedName name="solver_lhs30" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$68</definedName>
+    <definedName name="solver_lhs30" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$68</definedName>
     <definedName name="solver_lhs30" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs31" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$69</definedName>
+    <definedName name="solver_lhs31" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$69</definedName>
     <definedName name="solver_lhs31" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs32" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$70</definedName>
+    <definedName name="solver_lhs32" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$70</definedName>
     <definedName name="solver_lhs32" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs33" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$71</definedName>
+    <definedName name="solver_lhs33" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$71</definedName>
     <definedName name="solver_lhs33" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs34" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$72</definedName>
+    <definedName name="solver_lhs34" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$72</definedName>
     <definedName name="solver_lhs34" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs35" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$73</definedName>
+    <definedName name="solver_lhs35" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$73</definedName>
     <definedName name="solver_lhs35" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs36" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$74</definedName>
+    <definedName name="solver_lhs36" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$74</definedName>
     <definedName name="solver_lhs36" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs37" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$75</definedName>
+    <definedName name="solver_lhs37" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$75</definedName>
     <definedName name="solver_lhs37" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs38" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$76</definedName>
+    <definedName name="solver_lhs38" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$76</definedName>
     <definedName name="solver_lhs38" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs39" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$77</definedName>
+    <definedName name="solver_lhs39" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$77</definedName>
     <definedName name="solver_lhs39" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$65</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$65</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">Utilidad!$T$42</definedName>
-    <definedName name="solver_lhs40" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$78</definedName>
+    <definedName name="solver_lhs40" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$78</definedName>
     <definedName name="solver_lhs40" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs41" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$79</definedName>
+    <definedName name="solver_lhs41" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$79</definedName>
     <definedName name="solver_lhs41" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs42" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$80</definedName>
+    <definedName name="solver_lhs42" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$80</definedName>
     <definedName name="solver_lhs42" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs43" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$82</definedName>
+    <definedName name="solver_lhs43" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$82</definedName>
     <definedName name="solver_lhs43" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs44" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AE$81</definedName>
+    <definedName name="solver_lhs44" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AE$81</definedName>
     <definedName name="solver_lhs44" localSheetId="1" hidden="1">Utilidad!$V$63</definedName>
-    <definedName name="solver_lhs45" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$N$65</definedName>
-    <definedName name="solver_lhs46" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$N$77</definedName>
-    <definedName name="solver_lhs47" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$103</definedName>
-    <definedName name="solver_lhs48" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$101</definedName>
-    <definedName name="solver_lhs49" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$N$81</definedName>
-    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$66</definedName>
+    <definedName name="solver_lhs45" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$N$65</definedName>
+    <definedName name="solver_lhs46" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$N$77</definedName>
+    <definedName name="solver_lhs47" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$103</definedName>
+    <definedName name="solver_lhs48" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$101</definedName>
+    <definedName name="solver_lhs49" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$N$81</definedName>
+    <definedName name="solver_lhs5" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$66</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">Utilidad!$T$49</definedName>
-    <definedName name="solver_lhs50" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$106</definedName>
-    <definedName name="solver_lhs51" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$116</definedName>
-    <definedName name="solver_lhs52" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$109</definedName>
-    <definedName name="solver_lhs53" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$N$107</definedName>
-    <definedName name="solver_lhs54" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$80</definedName>
-    <definedName name="solver_lhs55" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$81</definedName>
-    <definedName name="solver_lhs56" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$73</definedName>
-    <definedName name="solver_lhs57" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$76</definedName>
-    <definedName name="solver_lhs58" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$70</definedName>
-    <definedName name="solver_lhs59" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$V$101</definedName>
-    <definedName name="solver_lhs6" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$67</definedName>
+    <definedName name="solver_lhs50" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$106</definedName>
+    <definedName name="solver_lhs51" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$116</definedName>
+    <definedName name="solver_lhs52" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$109</definedName>
+    <definedName name="solver_lhs53" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$N$107</definedName>
+    <definedName name="solver_lhs54" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$80</definedName>
+    <definedName name="solver_lhs55" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$81</definedName>
+    <definedName name="solver_lhs56" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$73</definedName>
+    <definedName name="solver_lhs57" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$76</definedName>
+    <definedName name="solver_lhs58" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$70</definedName>
+    <definedName name="solver_lhs59" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$V$101</definedName>
+    <definedName name="solver_lhs6" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$67</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">Utilidad!$T$51</definedName>
-    <definedName name="solver_lhs60" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$89</definedName>
-    <definedName name="solver_lhs61" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$99</definedName>
-    <definedName name="solver_lhs62" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$97</definedName>
-    <definedName name="solver_lhs63" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$86</definedName>
-    <definedName name="solver_lhs64" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$114</definedName>
-    <definedName name="solver_lhs65" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$111</definedName>
-    <definedName name="solver_lhs66" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$62</definedName>
-    <definedName name="solver_lhs67" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$71</definedName>
-    <definedName name="solver_lhs68" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$63</definedName>
-    <definedName name="solver_lhs69" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$68</definedName>
-    <definedName name="solver_lhs7" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$68</definedName>
+    <definedName name="solver_lhs60" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$89</definedName>
+    <definedName name="solver_lhs61" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$99</definedName>
+    <definedName name="solver_lhs62" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$97</definedName>
+    <definedName name="solver_lhs63" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$86</definedName>
+    <definedName name="solver_lhs64" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$114</definedName>
+    <definedName name="solver_lhs65" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$111</definedName>
+    <definedName name="solver_lhs66" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$62</definedName>
+    <definedName name="solver_lhs67" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$71</definedName>
+    <definedName name="solver_lhs68" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$63</definedName>
+    <definedName name="solver_lhs69" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$68</definedName>
+    <definedName name="solver_lhs7" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$68</definedName>
     <definedName name="solver_lhs7" localSheetId="1" hidden="1">Utilidad!$T$62</definedName>
-    <definedName name="solver_lhs70" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$N$106</definedName>
-    <definedName name="solver_lhs71" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$V$115</definedName>
-    <definedName name="solver_lhs72" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$V$111</definedName>
-    <definedName name="solver_lhs73" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$T$93</definedName>
-    <definedName name="solver_lhs74" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$V$62</definedName>
-    <definedName name="solver_lhs75" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$V$71</definedName>
-    <definedName name="solver_lhs76" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$V$116</definedName>
-    <definedName name="solver_lhs77" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$V$86</definedName>
-    <definedName name="solver_lhs78" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$O$72</definedName>
-    <definedName name="solver_lhs79" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$V$92</definedName>
-    <definedName name="solver_lhs8" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$69</definedName>
+    <definedName name="solver_lhs70" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$N$106</definedName>
+    <definedName name="solver_lhs71" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$V$115</definedName>
+    <definedName name="solver_lhs72" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$V$111</definedName>
+    <definedName name="solver_lhs73" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$T$93</definedName>
+    <definedName name="solver_lhs74" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$V$62</definedName>
+    <definedName name="solver_lhs75" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$V$71</definedName>
+    <definedName name="solver_lhs76" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$V$116</definedName>
+    <definedName name="solver_lhs77" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$V$86</definedName>
+    <definedName name="solver_lhs78" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$O$72</definedName>
+    <definedName name="solver_lhs79" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$V$92</definedName>
+    <definedName name="solver_lhs8" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$69</definedName>
     <definedName name="solver_lhs8" localSheetId="1" hidden="1">Utilidad!$T$63</definedName>
-    <definedName name="solver_lhs80" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$V$92</definedName>
-    <definedName name="solver_lhs9" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$70</definedName>
+    <definedName name="solver_lhs80" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$V$92</definedName>
+    <definedName name="solver_lhs9" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$70</definedName>
     <definedName name="solver_lhs9" localSheetId="1" hidden="1">Utilidad!$T$68</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">80</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">80</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">17</definedName>
-    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$AD$85</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'Diag Proc Los Colorados'!$Y$64</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$AD$85</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Diag Proc Los Colorados'!$Y$64</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Utilidad!$AB$55</definedName>
-    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel10" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel11" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel11" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel11" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel12" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel12" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel12" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel13" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel13" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel13" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel14" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel14" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel14" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel15" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel15" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel15" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel16" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel16" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel16" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel17" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel17" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel17" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel18" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel18" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel18" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel19" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel19" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel19" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel20" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel20" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel20" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel21" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel21" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel21" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel22" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel22" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel22" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel23" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel23" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel23" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel24" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel24" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel24" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel25" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel25" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel25" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel26" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel26" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel26" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel27" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel27" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel27" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel28" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel28" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel28" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel29" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel29" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel29" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel30" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel30" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel30" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel31" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel31" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel31" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel32" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel32" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel32" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel33" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel33" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel33" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel34" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel34" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel34" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel35" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel35" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel35" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel36" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel36" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel36" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel37" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel37" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel37" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel38" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel38" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel38" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel39" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel39" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel39" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel40" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel40" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel40" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel41" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel41" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel41" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel42" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel42" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel42" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel43" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel43" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel43" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel44" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel44" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel44" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel45" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel46" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel47" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel48" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel49" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel5" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel45" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel46" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel47" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel48" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel49" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel5" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel50" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel51" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel52" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel53" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel54" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel55" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel56" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel57" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel58" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel59" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel50" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel51" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel52" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel53" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel54" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel55" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel56" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel57" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel58" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel59" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel60" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel61" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel62" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel63" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel64" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel65" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel66" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel67" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel68" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel69" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel60" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel61" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel62" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel63" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel64" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel65" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel66" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel67" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel68" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel69" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel70" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel71" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel72" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel73" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel74" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel75" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel76" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel77" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel78" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel79" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel8" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel70" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel71" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel72" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel73" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel74" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel75" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel76" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel77" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel78" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel79" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel80" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel9" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel80" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">Utilidad!$AE$39:$AE$52</definedName>
-    <definedName name="solver_rhs10" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs10" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs10" localSheetId="1" hidden="1">Utilidad!$U$70</definedName>
-    <definedName name="solver_rhs11" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs11" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs11" localSheetId="1" hidden="1">Utilidad!$W$40</definedName>
-    <definedName name="solver_rhs12" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs12" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs12" localSheetId="1" hidden="1">Utilidad!$W$49</definedName>
-    <definedName name="solver_rhs13" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs13" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs13" localSheetId="1" hidden="1">Utilidad!$W$51</definedName>
-    <definedName name="solver_rhs14" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs14" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs14" localSheetId="1" hidden="1">Utilidad!$W$56</definedName>
-    <definedName name="solver_rhs15" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs15" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs15" localSheetId="1" hidden="1">Utilidad!$W$59</definedName>
-    <definedName name="solver_rhs16" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs16" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs16" localSheetId="1" hidden="1">Utilidad!$W$62</definedName>
-    <definedName name="solver_rhs17" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs17" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs17" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs18" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs18" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs18" localSheetId="1" hidden="1">Utilidad!$W$66</definedName>
-    <definedName name="solver_rhs19" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs19" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs19" localSheetId="1" hidden="1">Utilidad!$W$66</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">Utilidad!$AE$39:$AE$52</definedName>
-    <definedName name="solver_rhs20" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs20" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs20" localSheetId="1" hidden="1">Utilidad!$W$66</definedName>
-    <definedName name="solver_rhs21" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs21" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs21" localSheetId="1" hidden="1">Utilidad!$W$66</definedName>
-    <definedName name="solver_rhs22" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs22" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs22" localSheetId="1" hidden="1">Utilidad!$W$66</definedName>
-    <definedName name="solver_rhs23" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs23" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs23" localSheetId="1" hidden="1">Utilidad!$W$66</definedName>
-    <definedName name="solver_rhs24" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs24" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs24" localSheetId="1" hidden="1">Utilidad!$W$66</definedName>
-    <definedName name="solver_rhs25" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs25" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs25" localSheetId="1" hidden="1">Utilidad!$W$66</definedName>
-    <definedName name="solver_rhs26" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs26" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs26" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs27" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs27" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs27" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs28" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs28" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs28" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs29" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs29" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs29" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">Utilidad!$U$40</definedName>
-    <definedName name="solver_rhs30" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs30" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs30" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs31" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs31" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs31" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs32" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs32" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs32" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs33" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs33" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs33" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs34" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs34" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs34" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs35" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs35" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs35" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs36" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs36" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs36" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs37" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs37" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs37" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs38" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs38" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs38" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs39" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs39" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs39" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs4" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">Utilidad!$U$42</definedName>
-    <definedName name="solver_rhs40" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs40" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs40" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs41" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs41" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs41" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs42" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs42" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs42" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs43" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs43" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs43" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs44" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs44" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs44" localSheetId="1" hidden="1">Utilidad!$W$63</definedName>
-    <definedName name="solver_rhs45" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$K$65</definedName>
-    <definedName name="solver_rhs46" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_rhs47" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$103</definedName>
-    <definedName name="solver_rhs48" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$101</definedName>
-    <definedName name="solver_rhs49" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_rhs5" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs45" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$K$65</definedName>
+    <definedName name="solver_rhs46" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs47" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$103</definedName>
+    <definedName name="solver_rhs48" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$101</definedName>
+    <definedName name="solver_rhs49" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">Utilidad!$U$49</definedName>
-    <definedName name="solver_rhs50" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$106</definedName>
-    <definedName name="solver_rhs51" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$116</definedName>
-    <definedName name="solver_rhs52" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$109</definedName>
-    <definedName name="solver_rhs53" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$K$107</definedName>
-    <definedName name="solver_rhs54" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$80</definedName>
-    <definedName name="solver_rhs55" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$81</definedName>
-    <definedName name="solver_rhs56" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$73</definedName>
-    <definedName name="solver_rhs57" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$76</definedName>
-    <definedName name="solver_rhs58" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$70</definedName>
-    <definedName name="solver_rhs59" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$W$101</definedName>
-    <definedName name="solver_rhs6" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs50" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$106</definedName>
+    <definedName name="solver_rhs51" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$116</definedName>
+    <definedName name="solver_rhs52" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$109</definedName>
+    <definedName name="solver_rhs53" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$K$107</definedName>
+    <definedName name="solver_rhs54" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$80</definedName>
+    <definedName name="solver_rhs55" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$81</definedName>
+    <definedName name="solver_rhs56" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$73</definedName>
+    <definedName name="solver_rhs57" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$76</definedName>
+    <definedName name="solver_rhs58" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$70</definedName>
+    <definedName name="solver_rhs59" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$W$101</definedName>
+    <definedName name="solver_rhs6" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">Utilidad!$U$51</definedName>
-    <definedName name="solver_rhs60" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$89</definedName>
-    <definedName name="solver_rhs61" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$99</definedName>
-    <definedName name="solver_rhs62" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$97</definedName>
-    <definedName name="solver_rhs63" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$86</definedName>
-    <definedName name="solver_rhs64" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$114</definedName>
-    <definedName name="solver_rhs65" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$111</definedName>
-    <definedName name="solver_rhs66" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$62</definedName>
-    <definedName name="solver_rhs67" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$71</definedName>
-    <definedName name="solver_rhs68" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$63</definedName>
-    <definedName name="solver_rhs69" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$68</definedName>
-    <definedName name="solver_rhs7" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs60" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$89</definedName>
+    <definedName name="solver_rhs61" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$99</definedName>
+    <definedName name="solver_rhs62" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$97</definedName>
+    <definedName name="solver_rhs63" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$86</definedName>
+    <definedName name="solver_rhs64" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$114</definedName>
+    <definedName name="solver_rhs65" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$111</definedName>
+    <definedName name="solver_rhs66" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$62</definedName>
+    <definedName name="solver_rhs67" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$71</definedName>
+    <definedName name="solver_rhs68" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$63</definedName>
+    <definedName name="solver_rhs69" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$68</definedName>
+    <definedName name="solver_rhs7" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs7" localSheetId="1" hidden="1">Utilidad!$U$62</definedName>
-    <definedName name="solver_rhs70" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$N$103</definedName>
-    <definedName name="solver_rhs71" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$W$115</definedName>
-    <definedName name="solver_rhs72" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$W$111</definedName>
-    <definedName name="solver_rhs73" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$U$93</definedName>
-    <definedName name="solver_rhs74" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$W$62</definedName>
-    <definedName name="solver_rhs75" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$W$71</definedName>
-    <definedName name="solver_rhs76" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$W$116</definedName>
-    <definedName name="solver_rhs77" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$W$86</definedName>
-    <definedName name="solver_rhs78" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$Q$72</definedName>
-    <definedName name="solver_rhs79" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$W$92</definedName>
-    <definedName name="solver_rhs8" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs70" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$N$103</definedName>
+    <definedName name="solver_rhs71" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$W$115</definedName>
+    <definedName name="solver_rhs72" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$W$111</definedName>
+    <definedName name="solver_rhs73" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$U$93</definedName>
+    <definedName name="solver_rhs74" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$W$62</definedName>
+    <definedName name="solver_rhs75" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$W$71</definedName>
+    <definedName name="solver_rhs76" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$W$116</definedName>
+    <definedName name="solver_rhs77" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$W$86</definedName>
+    <definedName name="solver_rhs78" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$Q$72</definedName>
+    <definedName name="solver_rhs79" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$W$92</definedName>
+    <definedName name="solver_rhs8" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs8" localSheetId="1" hidden="1">Utilidad!$U$63</definedName>
-    <definedName name="solver_rhs80" localSheetId="4" hidden="1">'Bal Fet Pta Pellets'!$W$92</definedName>
-    <definedName name="solver_rhs9" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs80" localSheetId="5" hidden="1">'Bal Fet Pta Pellets'!$W$92</definedName>
+    <definedName name="solver_rhs9" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs9" localSheetId="1" hidden="1">Utilidad!$U$68</definedName>
-    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="SUMCHECK">#REF!</definedName>
     <definedName name="SUMCUTONNES">#REF!</definedName>
@@ -2725,6 +2726,138 @@
     <xf numFmtId="10" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2794,138 +2927,6 @@
     <xf numFmtId="175" fontId="22" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="21" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2938,23 +2939,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2962,10 +2954,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2974,10 +2972,13 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11325,86 +11326,86 @@
     <row r="2" spans="2:20" ht="14">
       <c r="B2" s="110"/>
       <c r="C2" s="111"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="264" t="s">
+      <c r="D2" s="302"/>
+      <c r="E2" s="303"/>
+      <c r="F2" s="308" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
-      <c r="K2" s="264"/>
-      <c r="L2" s="264"/>
-      <c r="M2" s="264"/>
-      <c r="N2" s="264"/>
-      <c r="O2" s="264"/>
-      <c r="P2" s="264"/>
-      <c r="Q2" s="265"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="308"/>
+      <c r="L2" s="308"/>
+      <c r="M2" s="308"/>
+      <c r="N2" s="308"/>
+      <c r="O2" s="308"/>
+      <c r="P2" s="308"/>
+      <c r="Q2" s="309"/>
       <c r="R2" s="112"/>
     </row>
     <row r="3" spans="2:20" ht="14">
       <c r="B3" s="110"/>
       <c r="C3" s="111"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
-      <c r="P3" s="266"/>
-      <c r="Q3" s="267"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="310"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="310"/>
+      <c r="I3" s="310"/>
+      <c r="J3" s="310"/>
+      <c r="K3" s="310"/>
+      <c r="L3" s="310"/>
+      <c r="M3" s="310"/>
+      <c r="N3" s="310"/>
+      <c r="O3" s="310"/>
+      <c r="P3" s="310"/>
+      <c r="Q3" s="311"/>
       <c r="R3" s="112"/>
     </row>
     <row r="4" spans="2:20" ht="14">
       <c r="B4" s="110"/>
       <c r="C4" s="111"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="266" t="s">
+      <c r="D4" s="304"/>
+      <c r="E4" s="305"/>
+      <c r="F4" s="310" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="266"/>
-      <c r="H4" s="266"/>
-      <c r="I4" s="266"/>
-      <c r="J4" s="266"/>
-      <c r="K4" s="266"/>
-      <c r="L4" s="266"/>
-      <c r="M4" s="266" t="s">
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="310"/>
+      <c r="M4" s="310" t="s">
         <v>136</v>
       </c>
-      <c r="N4" s="266"/>
-      <c r="O4" s="266"/>
-      <c r="P4" s="269" t="e">
+      <c r="N4" s="310"/>
+      <c r="O4" s="310"/>
+      <c r="P4" s="313" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q4" s="270"/>
+      <c r="Q4" s="314"/>
       <c r="R4" s="112"/>
     </row>
     <row r="5" spans="2:20" thickBot="1">
       <c r="B5" s="110"/>
       <c r="C5" s="111"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="268"/>
-      <c r="H5" s="268"/>
-      <c r="I5" s="268"/>
-      <c r="J5" s="268"/>
-      <c r="K5" s="268"/>
-      <c r="L5" s="268"/>
-      <c r="M5" s="268"/>
-      <c r="N5" s="268"/>
-      <c r="O5" s="268"/>
-      <c r="P5" s="271"/>
-      <c r="Q5" s="272"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="307"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="312"/>
+      <c r="J5" s="312"/>
+      <c r="K5" s="312"/>
+      <c r="L5" s="312"/>
+      <c r="M5" s="312"/>
+      <c r="N5" s="312"/>
+      <c r="O5" s="312"/>
+      <c r="P5" s="315"/>
+      <c r="Q5" s="316"/>
       <c r="R5" s="112"/>
     </row>
     <row r="6" spans="2:20" thickBot="1">
@@ -11427,9 +11428,9 @@
     <row r="7" spans="2:20" ht="14">
       <c r="B7" s="115"/>
       <c r="C7" s="116"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="295"/>
+      <c r="F7" s="295"/>
       <c r="G7" s="117" t="s">
         <v>137</v>
       </c>
@@ -11442,9 +11443,9 @@
       <c r="J7" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="254"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="255"/>
+      <c r="K7" s="298"/>
+      <c r="L7" s="299"/>
+      <c r="M7" s="299"/>
       <c r="N7" s="117" t="s">
         <v>137</v>
       </c>
@@ -11462,9 +11463,9 @@
     <row r="8" spans="2:20" thickBot="1">
       <c r="B8" s="115"/>
       <c r="C8" s="116"/>
-      <c r="D8" s="252"/>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
+      <c r="D8" s="296"/>
+      <c r="E8" s="297"/>
+      <c r="F8" s="297"/>
       <c r="G8" s="119" t="s">
         <v>2</v>
       </c>
@@ -11477,9 +11478,9 @@
       <c r="J8" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="256"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="257"/>
+      <c r="K8" s="300"/>
+      <c r="L8" s="301"/>
+      <c r="M8" s="301"/>
       <c r="N8" s="119" t="s">
         <v>2</v>
       </c>
@@ -11497,24 +11498,24 @@
     <row r="9" spans="2:20" ht="14">
       <c r="B9" s="115"/>
       <c r="C9" s="116"/>
-      <c r="D9" s="273" t="s">
+      <c r="D9" s="280" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="274"/>
-      <c r="F9" s="274"/>
-      <c r="G9" s="274"/>
-      <c r="H9" s="274"/>
-      <c r="I9" s="274"/>
-      <c r="J9" s="275"/>
-      <c r="K9" s="276" t="s">
+      <c r="E9" s="281"/>
+      <c r="F9" s="281"/>
+      <c r="G9" s="281"/>
+      <c r="H9" s="281"/>
+      <c r="I9" s="281"/>
+      <c r="J9" s="282"/>
+      <c r="K9" s="293" t="s">
         <v>141</v>
       </c>
-      <c r="L9" s="274"/>
-      <c r="M9" s="274"/>
-      <c r="N9" s="274"/>
-      <c r="O9" s="274"/>
-      <c r="P9" s="274"/>
-      <c r="Q9" s="275"/>
+      <c r="L9" s="281"/>
+      <c r="M9" s="281"/>
+      <c r="N9" s="281"/>
+      <c r="O9" s="281"/>
+      <c r="P9" s="281"/>
+      <c r="Q9" s="282"/>
       <c r="R9" s="112"/>
     </row>
     <row r="10" spans="2:20" ht="14">
@@ -11522,11 +11523,11 @@
       <c r="C10" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="277" t="s">
+      <c r="D10" s="260" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="278"/>
-      <c r="F10" s="279"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="262"/>
       <c r="G10" s="121"/>
       <c r="H10" s="121">
         <f>+Utilidad!M40</f>
@@ -11540,11 +11541,11 @@
         <f>+H10*I10</f>
         <v>343089.46198925452</v>
       </c>
-      <c r="K10" s="278" t="s">
+      <c r="K10" s="261" t="s">
         <v>143</v>
       </c>
-      <c r="L10" s="278"/>
-      <c r="M10" s="278"/>
+      <c r="L10" s="261"/>
+      <c r="M10" s="261"/>
       <c r="N10" s="121"/>
       <c r="O10" s="121">
         <f>+Utilidad!M52</f>
@@ -11566,11 +11567,11 @@
     <row r="11" spans="2:20" ht="14">
       <c r="B11" s="115"/>
       <c r="C11" s="116"/>
-      <c r="D11" s="277" t="s">
+      <c r="D11" s="260" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="278"/>
-      <c r="F11" s="279"/>
+      <c r="E11" s="261"/>
+      <c r="F11" s="262"/>
       <c r="G11" s="121"/>
       <c r="H11" s="121">
         <f>+Utilidad!M58</f>
@@ -11584,11 +11585,11 @@
         <f>+H11*I11</f>
         <v>30772.809073474022</v>
       </c>
-      <c r="K11" s="278" t="s">
+      <c r="K11" s="261" t="s">
         <v>144</v>
       </c>
-      <c r="L11" s="278"/>
-      <c r="M11" s="278"/>
+      <c r="L11" s="261"/>
+      <c r="M11" s="261"/>
       <c r="N11" s="121">
         <v>0</v>
       </c>
@@ -11606,18 +11607,18 @@
     <row r="12" spans="2:20" thickBot="1">
       <c r="B12" s="115"/>
       <c r="C12" s="116"/>
-      <c r="D12" s="277"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="279"/>
+      <c r="D12" s="260"/>
+      <c r="E12" s="261"/>
+      <c r="F12" s="262"/>
       <c r="G12" s="121"/>
       <c r="H12" s="121"/>
       <c r="I12" s="122"/>
       <c r="J12" s="123"/>
-      <c r="K12" s="278" t="s">
+      <c r="K12" s="261" t="s">
         <v>197</v>
       </c>
-      <c r="L12" s="278"/>
-      <c r="M12" s="278"/>
+      <c r="L12" s="261"/>
+      <c r="M12" s="261"/>
       <c r="N12" s="121"/>
       <c r="O12" s="121"/>
       <c r="P12" s="122"/>
@@ -11629,20 +11630,20 @@
       <c r="C13" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="280" t="s">
+      <c r="D13" s="276" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="281"/>
-      <c r="F13" s="281"/>
+      <c r="E13" s="277"/>
+      <c r="F13" s="277"/>
       <c r="G13" s="125"/>
       <c r="H13" s="126"/>
       <c r="I13" s="127"/>
       <c r="J13" s="128"/>
-      <c r="K13" s="282" t="s">
+      <c r="K13" s="291" t="s">
         <v>147</v>
       </c>
-      <c r="L13" s="283"/>
-      <c r="M13" s="283"/>
+      <c r="L13" s="292"/>
+      <c r="M13" s="292"/>
       <c r="N13" s="126">
         <f>SUM(N10:N12)</f>
         <v>0</v>
@@ -11664,15 +11665,15 @@
     <row r="14" spans="2:20" thickBot="1">
       <c r="B14" s="115"/>
       <c r="C14" s="116"/>
-      <c r="D14" s="273" t="s">
+      <c r="D14" s="280" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="274"/>
-      <c r="F14" s="274"/>
-      <c r="G14" s="274"/>
-      <c r="H14" s="274"/>
-      <c r="I14" s="274"/>
-      <c r="J14" s="275"/>
+      <c r="E14" s="281"/>
+      <c r="F14" s="281"/>
+      <c r="G14" s="281"/>
+      <c r="H14" s="281"/>
+      <c r="I14" s="281"/>
+      <c r="J14" s="282"/>
       <c r="K14" s="284" t="s">
         <v>151</v>
       </c>
@@ -11687,11 +11688,11 @@
     <row r="15" spans="2:20" thickBot="1">
       <c r="B15" s="115"/>
       <c r="C15" s="116"/>
-      <c r="D15" s="277" t="s">
+      <c r="D15" s="260" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="278"/>
-      <c r="F15" s="279"/>
+      <c r="E15" s="261"/>
+      <c r="F15" s="262"/>
       <c r="G15" s="121"/>
       <c r="H15" s="121"/>
       <c r="I15" s="129"/>
@@ -11719,20 +11720,20 @@
     <row r="16" spans="2:20" thickBot="1">
       <c r="B16" s="115"/>
       <c r="C16" s="116"/>
-      <c r="D16" s="277" t="s">
+      <c r="D16" s="260" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="278"/>
-      <c r="F16" s="279"/>
+      <c r="E16" s="261"/>
+      <c r="F16" s="262"/>
       <c r="G16" s="121"/>
       <c r="H16" s="121"/>
       <c r="I16" s="129"/>
       <c r="J16" s="173"/>
-      <c r="K16" s="280" t="s">
+      <c r="K16" s="276" t="s">
         <v>147</v>
       </c>
-      <c r="L16" s="281"/>
-      <c r="M16" s="281"/>
+      <c r="L16" s="277"/>
+      <c r="M16" s="277"/>
       <c r="N16" s="125"/>
       <c r="O16" s="125">
         <f>SUM(O15)</f>
@@ -11751,11 +11752,11 @@
     <row r="17" spans="2:19" ht="14">
       <c r="B17" s="115"/>
       <c r="C17" s="116"/>
-      <c r="D17" s="277" t="s">
+      <c r="D17" s="260" t="s">
         <v>175</v>
       </c>
-      <c r="E17" s="278"/>
-      <c r="F17" s="279"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="262"/>
       <c r="G17" s="121"/>
       <c r="H17" s="121"/>
       <c r="I17" s="122"/>
@@ -11765,11 +11766,11 @@
     <row r="18" spans="2:19" ht="14">
       <c r="B18" s="115"/>
       <c r="C18" s="116"/>
-      <c r="D18" s="277" t="s">
+      <c r="D18" s="260" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="278"/>
-      <c r="F18" s="279"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="262"/>
       <c r="G18" s="130"/>
       <c r="H18" s="121"/>
       <c r="I18" s="129"/>
@@ -11795,11 +11796,11 @@
     <row r="20" spans="2:19" ht="14">
       <c r="B20" s="115"/>
       <c r="C20" s="116"/>
-      <c r="D20" s="277" t="s">
+      <c r="D20" s="260" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="278"/>
-      <c r="F20" s="279"/>
+      <c r="E20" s="261"/>
+      <c r="F20" s="262"/>
       <c r="G20" s="130"/>
       <c r="H20" s="121"/>
       <c r="I20" s="129"/>
@@ -11816,11 +11817,11 @@
     <row r="21" spans="2:19" ht="14">
       <c r="B21" s="115"/>
       <c r="C21" s="116"/>
-      <c r="D21" s="277" t="s">
+      <c r="D21" s="260" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="278"/>
-      <c r="F21" s="279"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="262"/>
       <c r="G21" s="130"/>
       <c r="H21" s="121"/>
       <c r="I21" s="129"/>
@@ -11853,9 +11854,9 @@
       <c r="H22" s="121"/>
       <c r="I22" s="129"/>
       <c r="J22" s="173"/>
-      <c r="K22" s="295"/>
-      <c r="L22" s="296"/>
-      <c r="M22" s="296"/>
+      <c r="K22" s="274"/>
+      <c r="L22" s="275"/>
+      <c r="M22" s="275"/>
       <c r="N22" s="141"/>
       <c r="O22" s="139">
         <v>2100.8662841167534</v>
@@ -11867,11 +11868,11 @@
     <row r="23" spans="2:19" thickBot="1">
       <c r="B23" s="115"/>
       <c r="C23" s="116"/>
-      <c r="D23" s="280" t="s">
+      <c r="D23" s="276" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="281"/>
-      <c r="F23" s="281"/>
+      <c r="E23" s="277"/>
+      <c r="F23" s="277"/>
       <c r="G23" s="125">
         <f>+SUM(G15:G22)</f>
         <v>0</v>
@@ -11888,9 +11889,9 @@
         <f>+SUM(J15:J22)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="297"/>
-      <c r="L23" s="297"/>
-      <c r="M23" s="297"/>
+      <c r="K23" s="278"/>
+      <c r="L23" s="278"/>
+      <c r="M23" s="278"/>
       <c r="N23" s="142">
         <v>471219.05500982143</v>
       </c>
@@ -11905,9 +11906,9 @@
     <row r="24" spans="2:19" thickBot="1">
       <c r="B24" s="115"/>
       <c r="C24" s="116"/>
-      <c r="D24" s="298"/>
-      <c r="E24" s="298"/>
-      <c r="F24" s="298"/>
+      <c r="D24" s="279"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="279"/>
       <c r="G24" s="146"/>
       <c r="H24" s="144"/>
       <c r="I24" s="143"/>
@@ -11922,22 +11923,22 @@
     <row r="25" spans="2:19" hidden="1" thickBot="1">
       <c r="B25" s="115"/>
       <c r="C25" s="116"/>
-      <c r="D25" s="273" t="s">
+      <c r="D25" s="280" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="274"/>
-      <c r="F25" s="274"/>
-      <c r="G25" s="274"/>
-      <c r="H25" s="274"/>
-      <c r="I25" s="274"/>
-      <c r="J25" s="275"/>
-      <c r="K25" s="299"/>
-      <c r="L25" s="299"/>
-      <c r="M25" s="299"/>
-      <c r="N25" s="299"/>
-      <c r="O25" s="299"/>
-      <c r="P25" s="299"/>
-      <c r="Q25" s="299"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="281"/>
+      <c r="G25" s="281"/>
+      <c r="H25" s="281"/>
+      <c r="I25" s="281"/>
+      <c r="J25" s="282"/>
+      <c r="K25" s="283"/>
+      <c r="L25" s="283"/>
+      <c r="M25" s="283"/>
+      <c r="N25" s="283"/>
+      <c r="O25" s="283"/>
+      <c r="P25" s="283"/>
+      <c r="Q25" s="283"/>
       <c r="R25" s="148"/>
     </row>
     <row r="26" spans="2:19" hidden="1" thickBot="1">
@@ -11945,18 +11946,18 @@
       <c r="C26" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="277" t="s">
+      <c r="D26" s="260" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="278"/>
-      <c r="F26" s="279"/>
+      <c r="E26" s="261"/>
+      <c r="F26" s="262"/>
       <c r="G26" s="149"/>
       <c r="H26" s="121"/>
       <c r="I26" s="124"/>
       <c r="J26" s="123"/>
-      <c r="K26" s="300"/>
-      <c r="L26" s="300"/>
-      <c r="M26" s="300"/>
+      <c r="K26" s="263"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="263"/>
       <c r="N26" s="150"/>
       <c r="O26" s="151"/>
       <c r="P26" s="152"/>
@@ -11966,11 +11967,11 @@
     <row r="27" spans="2:19" hidden="1" thickBot="1">
       <c r="B27" s="115"/>
       <c r="C27" s="116"/>
-      <c r="D27" s="277" t="s">
+      <c r="D27" s="260" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="278"/>
-      <c r="F27" s="279"/>
+      <c r="E27" s="261"/>
+      <c r="F27" s="262"/>
       <c r="G27" s="149"/>
       <c r="H27" s="121"/>
       <c r="I27" s="153"/>
@@ -11987,18 +11988,18 @@
     <row r="28" spans="2:19" hidden="1" thickBot="1">
       <c r="B28" s="115"/>
       <c r="C28" s="116"/>
-      <c r="D28" s="277" t="s">
+      <c r="D28" s="260" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="278"/>
-      <c r="F28" s="279"/>
+      <c r="E28" s="261"/>
+      <c r="F28" s="262"/>
       <c r="G28" s="149"/>
       <c r="H28" s="121"/>
       <c r="I28" s="153"/>
       <c r="J28" s="123"/>
-      <c r="K28" s="300"/>
-      <c r="L28" s="300"/>
-      <c r="M28" s="300"/>
+      <c r="K28" s="263"/>
+      <c r="L28" s="263"/>
+      <c r="M28" s="263"/>
       <c r="N28" s="150"/>
       <c r="O28" s="151"/>
       <c r="P28" s="152"/>
@@ -12008,18 +12009,18 @@
     <row r="29" spans="2:19" hidden="1" thickBot="1">
       <c r="B29" s="115"/>
       <c r="C29" s="116"/>
-      <c r="D29" s="291" t="s">
+      <c r="D29" s="256" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="292"/>
-      <c r="F29" s="293"/>
+      <c r="E29" s="257"/>
+      <c r="F29" s="258"/>
       <c r="G29" s="149"/>
       <c r="H29" s="121"/>
       <c r="I29" s="153"/>
       <c r="J29" s="123"/>
-      <c r="K29" s="294"/>
-      <c r="L29" s="294"/>
-      <c r="M29" s="294"/>
+      <c r="K29" s="259"/>
+      <c r="L29" s="259"/>
+      <c r="M29" s="259"/>
       <c r="N29" s="154"/>
       <c r="O29" s="151"/>
       <c r="P29" s="152"/>
@@ -12029,18 +12030,18 @@
     <row r="30" spans="2:19" hidden="1" thickBot="1">
       <c r="B30" s="115"/>
       <c r="C30" s="116"/>
-      <c r="D30" s="291" t="s">
+      <c r="D30" s="256" t="s">
         <v>163</v>
       </c>
-      <c r="E30" s="292"/>
-      <c r="F30" s="293"/>
+      <c r="E30" s="257"/>
+      <c r="F30" s="258"/>
       <c r="G30" s="149"/>
       <c r="H30" s="121"/>
       <c r="I30" s="153"/>
       <c r="J30" s="123"/>
-      <c r="K30" s="294"/>
-      <c r="L30" s="294"/>
-      <c r="M30" s="294"/>
+      <c r="K30" s="259"/>
+      <c r="L30" s="259"/>
+      <c r="M30" s="259"/>
       <c r="N30" s="154"/>
       <c r="O30" s="151"/>
       <c r="P30" s="152"/>
@@ -12050,18 +12051,18 @@
     <row r="31" spans="2:19" hidden="1" thickBot="1">
       <c r="B31" s="115"/>
       <c r="C31" s="116"/>
-      <c r="D31" s="277" t="s">
+      <c r="D31" s="260" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="278"/>
-      <c r="F31" s="279"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="262"/>
       <c r="G31" s="149"/>
       <c r="H31" s="155"/>
       <c r="I31" s="153"/>
       <c r="J31" s="123"/>
-      <c r="K31" s="300"/>
-      <c r="L31" s="300"/>
-      <c r="M31" s="300"/>
+      <c r="K31" s="263"/>
+      <c r="L31" s="263"/>
+      <c r="M31" s="263"/>
       <c r="N31" s="150"/>
       <c r="O31" s="151"/>
       <c r="P31" s="152"/>
@@ -12071,18 +12072,18 @@
     <row r="32" spans="2:19" hidden="1" thickBot="1">
       <c r="B32" s="115"/>
       <c r="C32" s="116"/>
-      <c r="D32" s="307" t="s">
+      <c r="D32" s="264" t="s">
         <v>147</v>
       </c>
-      <c r="E32" s="308"/>
-      <c r="F32" s="308"/>
+      <c r="E32" s="265"/>
+      <c r="F32" s="265"/>
       <c r="G32" s="125"/>
       <c r="H32" s="125"/>
       <c r="I32" s="156"/>
       <c r="J32" s="128"/>
-      <c r="K32" s="309"/>
-      <c r="L32" s="309"/>
-      <c r="M32" s="309"/>
+      <c r="K32" s="266"/>
+      <c r="L32" s="266"/>
+      <c r="M32" s="266"/>
       <c r="N32" s="157"/>
       <c r="O32" s="158"/>
       <c r="P32" s="159"/>
@@ -12103,22 +12104,22 @@
     </row>
     <row r="34" spans="2:18" thickBot="1">
       <c r="B34" s="115"/>
-      <c r="D34" s="310" t="s">
+      <c r="D34" s="267" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="311"/>
-      <c r="F34" s="311"/>
-      <c r="G34" s="311"/>
-      <c r="H34" s="311"/>
-      <c r="I34" s="311"/>
-      <c r="J34" s="311"/>
-      <c r="K34" s="311"/>
-      <c r="L34" s="311"/>
-      <c r="M34" s="311"/>
-      <c r="N34" s="311"/>
-      <c r="O34" s="311"/>
-      <c r="P34" s="311"/>
-      <c r="Q34" s="312"/>
+      <c r="E34" s="268"/>
+      <c r="F34" s="268"/>
+      <c r="G34" s="268"/>
+      <c r="H34" s="268"/>
+      <c r="I34" s="268"/>
+      <c r="J34" s="268"/>
+      <c r="K34" s="268"/>
+      <c r="L34" s="268"/>
+      <c r="M34" s="268"/>
+      <c r="N34" s="268"/>
+      <c r="O34" s="268"/>
+      <c r="P34" s="268"/>
+      <c r="Q34" s="269"/>
       <c r="R34" s="112"/>
     </row>
     <row r="35" spans="2:18" thickBot="1">
@@ -12127,41 +12128,41 @@
     </row>
     <row r="36" spans="2:18" thickBot="1">
       <c r="B36" s="115"/>
-      <c r="D36" s="313" t="s">
+      <c r="D36" s="270" t="s">
         <v>166</v>
       </c>
-      <c r="E36" s="314"/>
-      <c r="F36" s="315"/>
+      <c r="E36" s="271"/>
+      <c r="F36" s="272"/>
       <c r="G36" s="165"/>
-      <c r="H36" s="316"/>
-      <c r="I36" s="316"/>
-      <c r="K36" s="313" t="s">
+      <c r="H36" s="273"/>
+      <c r="I36" s="273"/>
+      <c r="K36" s="270" t="s">
         <v>167</v>
       </c>
-      <c r="L36" s="314"/>
-      <c r="M36" s="315"/>
+      <c r="L36" s="271"/>
+      <c r="M36" s="272"/>
       <c r="N36" s="165"/>
-      <c r="O36" s="316"/>
-      <c r="P36" s="316"/>
+      <c r="O36" s="273"/>
+      <c r="P36" s="273"/>
       <c r="R36" s="112"/>
     </row>
     <row r="37" spans="2:18" ht="14">
       <c r="B37" s="115"/>
-      <c r="D37" s="301">
+      <c r="D37" s="250">
         <f>+'Diag Proc Los Colorados'!Q54</f>
         <v>0.82778572621212965</v>
       </c>
-      <c r="E37" s="302"/>
-      <c r="F37" s="303"/>
+      <c r="E37" s="251"/>
+      <c r="F37" s="252"/>
       <c r="G37" s="166"/>
       <c r="H37" s="167"/>
       <c r="I37" s="167"/>
-      <c r="K37" s="301">
+      <c r="K37" s="250">
         <f>+'Diag Proc Los Colorados'!Q55</f>
         <v>0.93319855310983524</v>
       </c>
-      <c r="L37" s="302"/>
-      <c r="M37" s="303"/>
+      <c r="L37" s="251"/>
+      <c r="M37" s="252"/>
       <c r="N37" s="166"/>
       <c r="O37" s="167"/>
       <c r="P37" s="167"/>
@@ -12169,15 +12170,15 @@
     </row>
     <row r="38" spans="2:18" thickBot="1">
       <c r="B38" s="115"/>
-      <c r="D38" s="304"/>
-      <c r="E38" s="305"/>
-      <c r="F38" s="306"/>
+      <c r="D38" s="253"/>
+      <c r="E38" s="254"/>
+      <c r="F38" s="255"/>
       <c r="G38" s="166"/>
       <c r="H38" s="168"/>
       <c r="I38" s="169"/>
-      <c r="K38" s="304"/>
-      <c r="L38" s="305"/>
-      <c r="M38" s="306"/>
+      <c r="K38" s="253"/>
+      <c r="L38" s="254"/>
+      <c r="M38" s="255"/>
       <c r="N38" s="166"/>
       <c r="O38" s="168"/>
       <c r="P38" s="169"/>
@@ -12220,6 +12221,47 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="K7:M8"/>
+    <mergeCell ref="D2:E5"/>
+    <mergeCell ref="F2:Q3"/>
+    <mergeCell ref="F4:L5"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="K28:M28"/>
     <mergeCell ref="D37:F38"/>
     <mergeCell ref="K37:M38"/>
     <mergeCell ref="D30:F30"/>
@@ -12233,47 +12275,6 @@
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="O36:P36"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="K7:M8"/>
-    <mergeCell ref="D2:E5"/>
-    <mergeCell ref="F2:Q3"/>
-    <mergeCell ref="F4:L5"/>
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="P4:Q5"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
@@ -12288,7 +12289,7 @@
   </sheetPr>
   <dimension ref="A1:BS159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B33" sqref="A1:B33"/>
     </sheetView>
   </sheetViews>
@@ -19618,6 +19619,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136662F3-D02A-9D44-BAA0-5F329E2E8528}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647D7745-D338-7744-A219-B6477F450083}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -20010,7 +20028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -21086,8 +21104,8 @@
     </row>
     <row r="40" spans="2:33" ht="16">
       <c r="B40" s="90"/>
-      <c r="C40" s="329"/>
-      <c r="D40" s="329"/>
+      <c r="C40" s="333"/>
+      <c r="D40" s="333"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
@@ -21413,14 +21431,14 @@
       <c r="M53" s="23"/>
       <c r="N53" s="96"/>
       <c r="O53"/>
-      <c r="P53" s="321" t="s">
+      <c r="P53" s="334" t="s">
         <v>168</v>
       </c>
-      <c r="Q53" s="321"/>
-      <c r="R53" s="321" t="s">
+      <c r="Q53" s="334"/>
+      <c r="R53" s="334" t="s">
         <v>184</v>
       </c>
-      <c r="S53" s="321"/>
+      <c r="S53" s="334"/>
       <c r="T53" s="91"/>
       <c r="Y53" s="98"/>
       <c r="Z53" s="98"/>
@@ -21739,22 +21757,22 @@
       </c>
     </row>
     <row r="66" spans="5:14" ht="32" customHeight="1">
-      <c r="E66" s="331" t="s">
+      <c r="E66" s="330" t="s">
         <v>117</v>
       </c>
-      <c r="F66" s="331"/>
-      <c r="G66" s="332"/>
-      <c r="H66" s="331" t="s">
+      <c r="F66" s="330"/>
+      <c r="G66" s="331"/>
+      <c r="H66" s="330" t="s">
         <v>124</v>
       </c>
-      <c r="I66" s="331"/>
-      <c r="J66" s="331"/>
-      <c r="K66" s="324" t="s">
+      <c r="I66" s="330"/>
+      <c r="J66" s="330"/>
+      <c r="K66" s="332" t="s">
         <v>116</v>
       </c>
-      <c r="L66" s="324"/>
-      <c r="M66" s="324"/>
-      <c r="N66" s="324"/>
+      <c r="L66" s="332"/>
+      <c r="M66" s="332"/>
+      <c r="N66" s="332"/>
     </row>
     <row r="67" spans="5:14">
       <c r="E67" s="80" t="s">
@@ -21784,10 +21802,10 @@
       </c>
     </row>
     <row r="68" spans="5:14">
-      <c r="E68" s="333" t="s">
+      <c r="E68" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="F68" s="334"/>
+      <c r="F68" s="329"/>
       <c r="G68" s="79">
         <f>+I49</f>
         <v>0</v>
@@ -21811,8 +21829,8 @@
       </c>
     </row>
     <row r="69" spans="5:14">
-      <c r="E69" s="325"/>
-      <c r="F69" s="326"/>
+      <c r="E69" s="321"/>
+      <c r="F69" s="322"/>
       <c r="G69" s="22"/>
       <c r="H69" s="323" t="s">
         <v>121</v>
@@ -21877,8 +21895,8 @@
       </c>
     </row>
     <row r="72" spans="5:14" s="185" customFormat="1">
-      <c r="E72" s="325"/>
-      <c r="F72" s="326"/>
+      <c r="E72" s="321"/>
+      <c r="F72" s="322"/>
       <c r="G72" s="22"/>
       <c r="H72" s="323" t="s">
         <v>187</v>
@@ -21899,8 +21917,8 @@
       </c>
     </row>
     <row r="73" spans="5:14" s="185" customFormat="1">
-      <c r="E73" s="325"/>
-      <c r="F73" s="326"/>
+      <c r="E73" s="321"/>
+      <c r="F73" s="322"/>
       <c r="G73" s="22"/>
       <c r="H73" s="323"/>
       <c r="I73" s="323"/>
@@ -21916,8 +21934,8 @@
       </c>
     </row>
     <row r="74" spans="5:14" s="185" customFormat="1">
-      <c r="E74" s="325"/>
-      <c r="F74" s="326"/>
+      <c r="E74" s="321"/>
+      <c r="F74" s="322"/>
       <c r="G74" s="22"/>
       <c r="H74" s="323"/>
       <c r="I74" s="323"/>
@@ -21928,8 +21946,8 @@
       <c r="N74" s="79"/>
     </row>
     <row r="75" spans="5:14">
-      <c r="E75" s="325"/>
-      <c r="F75" s="326"/>
+      <c r="E75" s="321"/>
+      <c r="F75" s="322"/>
       <c r="G75" s="22"/>
       <c r="H75" s="323"/>
       <c r="I75" s="323"/>
@@ -21940,27 +21958,27 @@
       <c r="N75" s="79"/>
     </row>
     <row r="76" spans="5:14" ht="19">
-      <c r="E76" s="327" t="s">
+      <c r="E76" s="324" t="s">
         <v>126</v>
       </c>
-      <c r="F76" s="328"/>
+      <c r="F76" s="325"/>
       <c r="G76" s="81">
         <f>+SUM(G67:G75)</f>
         <v>635936.20200000005</v>
       </c>
-      <c r="H76" s="322" t="s">
+      <c r="H76" s="326" t="s">
         <v>125</v>
       </c>
-      <c r="I76" s="322"/>
+      <c r="I76" s="326"/>
       <c r="J76" s="87">
         <f>+SUM(J67:J75)</f>
         <v>-3107.9459999999999</v>
       </c>
-      <c r="K76" s="330" t="s">
+      <c r="K76" s="327" t="s">
         <v>127</v>
       </c>
-      <c r="L76" s="330"/>
-      <c r="M76" s="330"/>
+      <c r="L76" s="327"/>
+      <c r="M76" s="327"/>
       <c r="N76" s="81">
         <f>+SUM(N67:N75)</f>
         <v>639044.14800000004</v>
@@ -21993,22 +22011,22 @@
       <c r="N81" s="185"/>
     </row>
     <row r="82" spans="5:16" ht="19">
-      <c r="E82" s="331" t="s">
+      <c r="E82" s="330" t="s">
         <v>117</v>
       </c>
-      <c r="F82" s="331"/>
-      <c r="G82" s="332"/>
-      <c r="H82" s="331" t="s">
+      <c r="F82" s="330"/>
+      <c r="G82" s="331"/>
+      <c r="H82" s="330" t="s">
         <v>124</v>
       </c>
-      <c r="I82" s="331"/>
-      <c r="J82" s="331"/>
-      <c r="K82" s="324" t="s">
+      <c r="I82" s="330"/>
+      <c r="J82" s="330"/>
+      <c r="K82" s="332" t="s">
         <v>116</v>
       </c>
-      <c r="L82" s="324"/>
-      <c r="M82" s="324"/>
-      <c r="N82" s="324"/>
+      <c r="L82" s="332"/>
+      <c r="M82" s="332"/>
+      <c r="N82" s="332"/>
     </row>
     <row r="83" spans="5:16">
       <c r="E83" s="80" t="s">
@@ -22038,10 +22056,10 @@
       </c>
     </row>
     <row r="84" spans="5:16">
-      <c r="E84" s="333" t="s">
+      <c r="E84" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="F84" s="334"/>
+      <c r="F84" s="329"/>
       <c r="G84" s="79">
         <f>+I51</f>
         <v>0</v>
@@ -22065,8 +22083,8 @@
       </c>
     </row>
     <row r="85" spans="5:16">
-      <c r="E85" s="325"/>
-      <c r="F85" s="326"/>
+      <c r="E85" s="321"/>
+      <c r="F85" s="322"/>
       <c r="G85" s="22"/>
       <c r="H85" s="323" t="s">
         <v>121</v>
@@ -22131,8 +22149,8 @@
       </c>
     </row>
     <row r="88" spans="5:16">
-      <c r="E88" s="325"/>
-      <c r="F88" s="326"/>
+      <c r="E88" s="321"/>
+      <c r="F88" s="322"/>
       <c r="G88" s="22"/>
       <c r="H88" s="323" t="s">
         <v>187</v>
@@ -22153,8 +22171,8 @@
       </c>
     </row>
     <row r="89" spans="5:16">
-      <c r="E89" s="325"/>
-      <c r="F89" s="326"/>
+      <c r="E89" s="321"/>
+      <c r="F89" s="322"/>
       <c r="G89" s="22"/>
       <c r="H89" s="323"/>
       <c r="I89" s="323"/>
@@ -22170,8 +22188,8 @@
       </c>
     </row>
     <row r="90" spans="5:16">
-      <c r="E90" s="325"/>
-      <c r="F90" s="326"/>
+      <c r="E90" s="321"/>
+      <c r="F90" s="322"/>
       <c r="G90" s="22"/>
       <c r="H90" s="323"/>
       <c r="I90" s="323"/>
@@ -22182,8 +22200,8 @@
       <c r="N90" s="79"/>
     </row>
     <row r="91" spans="5:16">
-      <c r="E91" s="325"/>
-      <c r="F91" s="326"/>
+      <c r="E91" s="321"/>
+      <c r="F91" s="322"/>
       <c r="G91" s="22"/>
       <c r="H91" s="323"/>
       <c r="I91" s="323"/>
@@ -22194,27 +22212,27 @@
       <c r="N91" s="79"/>
     </row>
     <row r="92" spans="5:16" ht="19">
-      <c r="E92" s="327" t="s">
+      <c r="E92" s="324" t="s">
         <v>126</v>
       </c>
-      <c r="F92" s="328"/>
+      <c r="F92" s="325"/>
       <c r="G92" s="81">
         <f>+SUM(G83:G91)</f>
         <v>343089.46198925452</v>
       </c>
-      <c r="H92" s="322" t="s">
+      <c r="H92" s="326" t="s">
         <v>125</v>
       </c>
-      <c r="I92" s="322"/>
+      <c r="I92" s="326"/>
       <c r="J92" s="87">
         <f>+SUM(J83:J91)</f>
         <v>15739.290638910732</v>
       </c>
-      <c r="K92" s="330" t="s">
+      <c r="K92" s="327" t="s">
         <v>127</v>
       </c>
-      <c r="L92" s="330"/>
-      <c r="M92" s="330"/>
+      <c r="L92" s="327"/>
+      <c r="M92" s="327"/>
       <c r="N92" s="81">
         <f>+SUM(N83:N91)</f>
         <v>327350.1713518679</v>
@@ -22268,36 +22286,23 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="P53:Q53"/>
@@ -22314,23 +22319,36 @@
     <mergeCell ref="E73:F73"/>
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="K92:M92"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0" top="1.1417322834645669" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="43" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -22496,7 +22514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -36420,12 +36438,36 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="428c3ae0-30fa-4419-8107-8524dfe65e99">
+      <UserInfo>
+        <DisplayName>Miguel Esteban Frez Barraza</DisplayName>
+        <AccountId>24</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jocelyn Andrea Concha Marchant</DisplayName>
+        <AccountId>38</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Cecilia Paulina Urzua Hernandez</DisplayName>
+        <AccountId>59</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Hernan Alejandro Rodriguez Descovic</DisplayName>
+        <AccountId>106</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <TaxCatchAll xmlns="428c3ae0-30fa-4419-8107-8524dfe65e99" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="190a67bf-4793-449f-a9eb-d5296f44b3b4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36672,42 +36714,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="428c3ae0-30fa-4419-8107-8524dfe65e99">
-      <UserInfo>
-        <DisplayName>Miguel Esteban Frez Barraza</DisplayName>
-        <AccountId>24</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jocelyn Andrea Concha Marchant</DisplayName>
-        <AccountId>38</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Cecilia Paulina Urzua Hernandez</DisplayName>
-        <AccountId>59</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Hernan Alejandro Rodriguez Descovic</DisplayName>
-        <AccountId>106</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <TaxCatchAll xmlns="428c3ae0-30fa-4419-8107-8524dfe65e99" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="190a67bf-4793-449f-a9eb-d5296f44b3b4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED403D7E-BCFE-4FF5-AE66-F1FC4CFD056A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B29F5FE-7652-48A9-A672-DDB3F360B271}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="428c3ae0-30fa-4419-8107-8524dfe65e99"/>
+    <ds:schemaRef ds:uri="190a67bf-4793-449f-a9eb-d5296f44b3b4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -36732,18 +36759,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B29F5FE-7652-48A9-A672-DDB3F360B271}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED403D7E-BCFE-4FF5-AE66-F1FC4CFD056A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="428c3ae0-30fa-4419-8107-8524dfe65e99"/>
-    <ds:schemaRef ds:uri="190a67bf-4793-449f-a9eb-d5296f44b3b4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/public/Export/Exportar_Huasco_Colorados.xlsx
+++ b/public/Export/Exportar_Huasco_Colorados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5377981B-C7AA-4944-9AFF-BDA5A49C63E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7312E8AD-2DFE-2F4B-8469-20681220734C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="0" windowWidth="28020" windowHeight="18000" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
